--- a/Учет контрольных/ПиОА Original (Контрольная работа 2) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Original (Контрольная работа 2) DIV100.xlsx
@@ -481,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -507,13 +507,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>11</v>
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>7.000000000000001</v>
@@ -565,7 +565,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>7.000000000000001</v>
@@ -585,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
@@ -689,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
         <v>12</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>12</v>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
         <v>8</v>
@@ -900,10 +900,10 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>8</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -949,13 +949,13 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -975,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1027,13 +1027,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
         <v>14</v>
@@ -1056,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>7.000000000000001</v>
@@ -1079,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>14</v>
@@ -1287,13 +1287,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -1345,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1368,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F36" t="n">
         <v>8</v>
@@ -1423,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
         <v>13</v>
@@ -1449,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
         <v>16</v>
@@ -1495,13 +1495,13 @@
         <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
@@ -1553,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" t="n">
         <v>15</v>
@@ -1602,10 +1602,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
         <v>7.000000000000001</v>
@@ -1631,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
         <v>7.000000000000001</v>
@@ -1654,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>5</v>
@@ -1703,13 +1703,13 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -1752,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D51" t="n">
         <v>5</v>
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
         <v>7.000000000000001</v>
@@ -1813,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53" t="n">
         <v>12</v>
@@ -1839,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
         <v>14</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
         <v>13</v>
@@ -1885,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
         <v>9</v>
@@ -1940,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
         <v>12</v>
@@ -1963,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -2047,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62" t="n">
         <v>14</v>
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
         <v>13</v>
@@ -2177,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
         <v>13</v>
@@ -2223,13 +2223,13 @@
         <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
         <v>8</v>
@@ -2307,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72" t="n">
         <v>13</v>
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G75" t="n">
         <v>14</v>
@@ -2408,7 +2408,7 @@
         <v>11</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
         <v>12</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -2460,10 +2460,10 @@
         <v>16</v>
       </c>
       <c r="E78" t="n">
+        <v>16</v>
+      </c>
+      <c r="F78" t="n">
         <v>17</v>
-      </c>
-      <c r="F78" t="n">
-        <v>16</v>
       </c>
       <c r="G78" t="n">
         <v>17</v>
@@ -2489,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G79" t="n">
         <v>13</v>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
         <v>11</v>
@@ -2535,13 +2535,13 @@
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
         <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G81" t="n">
         <v>12</v>
@@ -2561,13 +2561,13 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -2593,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
         <v>13</v>
@@ -2613,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -2639,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -2665,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -2697,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
         <v>15</v>
@@ -2769,13 +2769,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -2801,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G91" t="n">
         <v>14</v>
@@ -2824,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
         <v>12</v>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -2905,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" t="n">
         <v>14</v>
@@ -2957,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
@@ -3029,13 +3029,13 @@
         <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" t="n">
         <v>10</v>
@@ -3061,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" t="n">
         <v>14</v>
@@ -3113,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G103" t="n">
         <v>14</v>
@@ -3133,13 +3133,13 @@
         <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" t="n">
         <v>13</v>
@@ -3159,13 +3159,13 @@
         <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -3211,13 +3211,13 @@
         <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
         <v>10</v>
@@ -3237,13 +3237,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G108" t="n">
         <v>7.000000000000001</v>
@@ -3318,10 +3318,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G111" t="n">
         <v>9</v>
@@ -3347,7 +3347,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3393,7 +3393,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
         <v>11</v>
@@ -3425,7 +3425,7 @@
         <v>15</v>
       </c>
       <c r="F115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
         <v>15</v>
@@ -3451,7 +3451,7 @@
         <v>15</v>
       </c>
       <c r="F116" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G116" t="n">
         <v>14</v>
@@ -3526,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F119" t="n">
         <v>12</v>
@@ -3555,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="F120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G120" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -3685,7 +3685,7 @@
         <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G125" t="n">
         <v>13</v>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -3731,13 +3731,13 @@
         <v>15</v>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E127" t="n">
         <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G127" t="n">
         <v>13</v>
@@ -3763,7 +3763,7 @@
         <v>14</v>
       </c>
       <c r="F128" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G128" t="n">
         <v>13</v>
@@ -3789,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G129" t="n">
         <v>10</v>
@@ -3841,7 +3841,7 @@
         <v>15</v>
       </c>
       <c r="F131" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
         <v>15</v>
@@ -3887,7 +3887,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -3945,7 +3945,7 @@
         <v>16</v>
       </c>
       <c r="F135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n">
         <v>16</v>
@@ -3965,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
       </c>
       <c r="F136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -3994,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="E137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="n">
         <v>12</v>
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G138" t="n">
         <v>8</v>
@@ -4049,7 +4049,7 @@
         <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G139" t="n">
         <v>14</v>
@@ -4101,7 +4101,7 @@
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G141" t="n">
         <v>15</v>
@@ -4147,10 +4147,10 @@
         <v>13</v>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4176,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="n">
         <v>12</v>
@@ -4225,13 +4225,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -4257,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G147" t="n">
         <v>16</v>
@@ -4283,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="F148" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G148" t="n">
         <v>14</v>
@@ -4309,7 +4309,7 @@
         <v>14</v>
       </c>
       <c r="F149" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G149" t="n">
         <v>15</v>
@@ -4335,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="F150" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G150" t="n">
         <v>9</v>
@@ -4358,10 +4358,10 @@
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -4407,13 +4407,13 @@
         <v>10</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -4433,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
@@ -4485,13 +4485,13 @@
         <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F156" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" t="n">
         <v>11</v>
@@ -4517,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G157" t="n">
         <v>13</v>
@@ -4543,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G158" t="n">
         <v>8</v>
@@ -4563,13 +4563,13 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -4641,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -4719,13 +4719,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165" t="n">
         <v>6</v>
       </c>
       <c r="F165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G165" t="n">
         <v>7.000000000000001</v>
@@ -4745,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G166" t="n">
         <v>10</v>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -4797,13 +4797,13 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G168" t="n">
         <v>10</v>
@@ -4826,10 +4826,10 @@
         <v>15</v>
       </c>
       <c r="E169" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F169" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
         <v>13</v>
@@ -4852,10 +4852,10 @@
         <v>16</v>
       </c>
       <c r="E170" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G170" t="n">
         <v>15</v>
@@ -4878,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="E171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F171" t="n">
         <v>12</v>
@@ -4901,13 +4901,13 @@
         <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4953,13 +4953,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" t="n">
         <v>8</v>
@@ -5005,10 +5005,10 @@
         <v>10</v>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F176" t="n">
         <v>8</v>
@@ -5037,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="F177" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G177" t="n">
         <v>11</v>
@@ -5060,10 +5060,10 @@
         <v>15</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G178" t="n">
         <v>13</v>
@@ -5109,7 +5109,7 @@
         <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -5141,7 +5141,7 @@
         <v>15</v>
       </c>
       <c r="F181" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G181" t="n">
         <v>14</v>
@@ -5161,10 +5161,10 @@
         <v>5</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
         <v>4</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
         <v>3</v>
@@ -5219,7 +5219,7 @@
         <v>14</v>
       </c>
       <c r="F184" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G184" t="n">
         <v>12</v>
@@ -5245,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="F185" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G185" t="n">
         <v>13</v>
@@ -5294,10 +5294,10 @@
         <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F187" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G187" t="n">
         <v>14</v>
@@ -5317,13 +5317,13 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E188" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G188" t="n">
         <v>9</v>
@@ -5369,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E190" t="n">
         <v>6</v>
@@ -5398,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="E191" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F191" t="n">
         <v>12</v>
@@ -5427,7 +5427,7 @@
         <v>15</v>
       </c>
       <c r="F192" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G192" t="n">
         <v>14</v>
@@ -5479,7 +5479,7 @@
         <v>15</v>
       </c>
       <c r="F194" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G194" t="n">
         <v>14</v>
@@ -5499,13 +5499,13 @@
         <v>12</v>
       </c>
       <c r="D195" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F195" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G195" t="n">
         <v>13</v>
@@ -5528,10 +5528,10 @@
         <v>11</v>
       </c>
       <c r="E196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G196" t="n">
         <v>7.000000000000001</v>
@@ -5583,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="F198" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G198" t="n">
         <v>15</v>
@@ -5603,7 +5603,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E199" t="n">
         <v>7.000000000000001</v>
@@ -5629,13 +5629,13 @@
         <v>10</v>
       </c>
       <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6</v>
+      </c>
+      <c r="F200" t="n">
         <v>3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>5</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4</v>
       </c>
       <c r="G200" t="n">
         <v>6</v>
@@ -5661,7 +5661,7 @@
         <v>15</v>
       </c>
       <c r="F201" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G201" t="n">
         <v>14</v>
@@ -5687,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="F202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G202" t="n">
         <v>13</v>
@@ -5707,13 +5707,13 @@
         <v>11</v>
       </c>
       <c r="D203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5739,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="F204" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G204" t="n">
         <v>14</v>
@@ -5759,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -5811,13 +5811,13 @@
         <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E207" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G207" t="n">
         <v>10</v>
@@ -5837,13 +5837,13 @@
         <v>9</v>
       </c>
       <c r="D208" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E208" t="n">
         <v>8</v>
       </c>
       <c r="F208" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G208" t="n">
         <v>9</v>
@@ -5892,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="E210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F210" t="n">
         <v>12</v>
@@ -5915,13 +5915,13 @@
         <v>12</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E211" t="n">
         <v>14</v>
       </c>
       <c r="F211" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G211" t="n">
         <v>11</v>
@@ -5947,7 +5947,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F212" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G212" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G213" t="n">
         <v>12</v>
@@ -5999,7 +5999,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G214" t="n">
         <v>9</v>
@@ -6025,7 +6025,7 @@
         <v>15</v>
       </c>
       <c r="F215" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G215" t="n">
         <v>14</v>
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -6109,7 +6109,7 @@
         <v>5</v>
       </c>
       <c r="H218" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -6149,13 +6149,13 @@
         <v>13</v>
       </c>
       <c r="D220" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E220" t="n">
         <v>14</v>
       </c>
       <c r="F220" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G220" t="n">
         <v>12</v>
@@ -6175,13 +6175,13 @@
         <v>14</v>
       </c>
       <c r="D221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G221" t="n">
         <v>13</v>
@@ -6253,13 +6253,13 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G224" t="n">
         <v>6</v>
@@ -6279,13 +6279,13 @@
         <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G225" t="n">
         <v>8</v>
@@ -6305,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="D226" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -6331,13 +6331,13 @@
         <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
       </c>
       <c r="F227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G227" t="n">
         <v>9</v>
@@ -6357,13 +6357,13 @@
         <v>13</v>
       </c>
       <c r="D228" t="n">
+        <v>8</v>
+      </c>
+      <c r="E228" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="E228" t="n">
-        <v>8</v>
-      </c>
       <c r="F228" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G228" t="n">
         <v>10</v>
@@ -6383,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E229" t="n">
         <v>12</v>
@@ -6409,7 +6409,7 @@
         <v>8</v>
       </c>
       <c r="D230" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E230" t="n">
         <v>7.000000000000001</v>
@@ -6435,13 +6435,13 @@
         <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E231" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F231" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G231" t="n">
         <v>7.000000000000001</v>
@@ -6545,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="F235" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G235" t="n">
         <v>15</v>
@@ -6565,13 +6565,13 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236" t="n">
         <v>6</v>
       </c>
       <c r="F236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G236" t="n">
         <v>6</v>
@@ -6623,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -6672,10 +6672,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E240" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F240" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G240" t="n">
         <v>7.000000000000001</v>
@@ -6695,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241" t="n">
         <v>2</v>
@@ -6753,7 +6753,7 @@
         <v>5</v>
       </c>
       <c r="F243" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G243" t="n">
         <v>7.000000000000001</v>
@@ -6825,13 +6825,13 @@
         <v>12</v>
       </c>
       <c r="D246" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G246" t="n">
         <v>10</v>
@@ -6857,7 +6857,7 @@
         <v>14</v>
       </c>
       <c r="F247" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G247" t="n">
         <v>13</v>
@@ -6880,10 +6880,10 @@
         <v>10</v>
       </c>
       <c r="E248" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F248" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
         <v>10</v>
@@ -6909,7 +6909,7 @@
         <v>15</v>
       </c>
       <c r="F249" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G249" t="n">
         <v>14</v>
@@ -6929,13 +6929,13 @@
         <v>16</v>
       </c>
       <c r="D250" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E250" t="n">
         <v>15</v>
       </c>
       <c r="F250" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G250" t="n">
         <v>14</v>
@@ -6958,10 +6958,10 @@
         <v>16</v>
       </c>
       <c r="E251" t="n">
+        <v>16</v>
+      </c>
+      <c r="F251" t="n">
         <v>17</v>
-      </c>
-      <c r="F251" t="n">
-        <v>16</v>
       </c>
       <c r="G251" t="n">
         <v>16</v>
@@ -6981,13 +6981,13 @@
         <v>13</v>
       </c>
       <c r="D252" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E252" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F252" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G252" t="n">
         <v>13</v>
@@ -7007,13 +7007,13 @@
         <v>12</v>
       </c>
       <c r="D253" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G253" t="n">
         <v>10</v>
@@ -7036,10 +7036,10 @@
         <v>11</v>
       </c>
       <c r="E254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G254" t="n">
         <v>9</v>
@@ -7091,7 +7091,7 @@
         <v>16</v>
       </c>
       <c r="F256" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G256" t="n">
         <v>15</v>
@@ -7143,7 +7143,7 @@
         <v>11</v>
       </c>
       <c r="F258" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G258" t="n">
         <v>11</v>
@@ -7163,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="D259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -7189,13 +7189,13 @@
         <v>15</v>
       </c>
       <c r="D260" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E260" t="n">
         <v>12</v>
       </c>
       <c r="F260" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G260" t="n">
         <v>13</v>
@@ -7241,13 +7241,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
         <v>6</v>
       </c>
       <c r="F262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G262" t="n">
         <v>6</v>
@@ -7267,13 +7267,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
         <v>6</v>
       </c>
       <c r="F263" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G263" t="n">
         <v>7.000000000000001</v>
@@ -7293,13 +7293,13 @@
         <v>11</v>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G264" t="n">
         <v>9</v>
@@ -7319,13 +7319,13 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
         <v>6</v>
       </c>
       <c r="F265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G265" t="n">
         <v>7.000000000000001</v>
@@ -7371,13 +7371,13 @@
         <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G267" t="n">
         <v>10</v>
@@ -7426,7 +7426,7 @@
         <v>12</v>
       </c>
       <c r="E269" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F269" t="n">
         <v>12</v>
@@ -7481,7 +7481,7 @@
         <v>12</v>
       </c>
       <c r="F271" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G271" t="n">
         <v>11</v>
@@ -7501,13 +7501,13 @@
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G272" t="n">
         <v>10</v>
@@ -7559,7 +7559,7 @@
         <v>15</v>
       </c>
       <c r="F274" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G274" t="n">
         <v>13</v>
@@ -7585,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -7605,7 +7605,7 @@
         <v>12</v>
       </c>
       <c r="D276" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -7663,7 +7663,7 @@
         <v>14</v>
       </c>
       <c r="F278" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G278" t="n">
         <v>14</v>
@@ -7689,7 +7689,7 @@
         <v>15</v>
       </c>
       <c r="F279" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G279" t="n">
         <v>13</v>
@@ -7715,7 +7715,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G280" t="n">
         <v>16</v>
@@ -7813,13 +7813,13 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
       </c>
       <c r="F284" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G284" t="n">
         <v>13</v>
@@ -7845,7 +7845,7 @@
         <v>15</v>
       </c>
       <c r="F285" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G285" t="n">
         <v>15</v>
@@ -7865,13 +7865,13 @@
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G286" t="n">
         <v>8</v>
@@ -7917,13 +7917,13 @@
         <v>10</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E288" t="n">
         <v>6</v>
       </c>
       <c r="F288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G288" t="n">
         <v>6</v>
@@ -7949,7 +7949,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G289" t="n">
         <v>16</v>
@@ -7975,7 +7975,7 @@
         <v>14</v>
       </c>
       <c r="F290" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G290" t="n">
         <v>14</v>
@@ -7995,13 +7995,13 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E291" t="n">
         <v>8</v>
       </c>
       <c r="F291" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G291" t="n">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>14</v>
       </c>
       <c r="F292" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G292" t="n">
         <v>13</v>
@@ -8047,7 +8047,7 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E293" t="n">
         <v>11</v>
@@ -8105,7 +8105,7 @@
         <v>14</v>
       </c>
       <c r="F295" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G295" t="n">
         <v>14</v>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
       <c r="F296" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G296" t="n">
         <v>14</v>
@@ -8151,13 +8151,13 @@
         <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
       </c>
       <c r="F297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G297" t="n">
         <v>13</v>
@@ -8183,7 +8183,7 @@
         <v>15</v>
       </c>
       <c r="F298" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G298" t="n">
         <v>14</v>
@@ -8287,7 +8287,7 @@
         <v>15</v>
       </c>
       <c r="F302" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G302" t="n">
         <v>13</v>
@@ -8339,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="F304" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G304" t="n">
         <v>15</v>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
       <c r="E305" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F305" t="n">
         <v>5</v>
@@ -8411,7 +8411,7 @@
         <v>12</v>
       </c>
       <c r="D307" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E307" t="n">
         <v>11</v>
@@ -8443,7 +8443,7 @@
         <v>14</v>
       </c>
       <c r="F308" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G308" t="n">
         <v>14</v>
@@ -8495,7 +8495,7 @@
         <v>15</v>
       </c>
       <c r="F310" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G310" t="n">
         <v>14</v>
@@ -8515,13 +8515,13 @@
         <v>12</v>
       </c>
       <c r="D311" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E311" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G311" t="n">
         <v>10</v>
@@ -8567,13 +8567,13 @@
         <v>5</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
       </c>
       <c r="F313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G313" t="n">
         <v>4</v>
@@ -8593,13 +8593,13 @@
         <v>10</v>
       </c>
       <c r="D314" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E314" t="n">
         <v>8</v>
       </c>
       <c r="F314" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G314" t="n">
         <v>8</v>
@@ -8619,13 +8619,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
       </c>
       <c r="F315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G315" t="n">
         <v>6</v>
@@ -8648,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="E316" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F316" t="n">
         <v>12</v>
@@ -8697,13 +8697,13 @@
         <v>15</v>
       </c>
       <c r="D318" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E318" t="n">
         <v>12</v>
       </c>
       <c r="F318" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G318" t="n">
         <v>13</v>
@@ -8755,7 +8755,7 @@
         <v>16</v>
       </c>
       <c r="F320" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G320" t="n">
         <v>15</v>
@@ -8778,7 +8778,7 @@
         <v>12</v>
       </c>
       <c r="E321" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F321" t="n">
         <v>12</v>
@@ -8833,7 +8833,7 @@
         <v>14</v>
       </c>
       <c r="F323" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G323" t="n">
         <v>13</v>
@@ -8882,10 +8882,10 @@
         <v>6</v>
       </c>
       <c r="E325" t="n">
+        <v>8</v>
+      </c>
+      <c r="F325" t="n">
         <v>7.000000000000001</v>
-      </c>
-      <c r="F325" t="n">
-        <v>8</v>
       </c>
       <c r="G325" t="n">
         <v>8</v>
@@ -8911,7 +8911,7 @@
         <v>15</v>
       </c>
       <c r="F326" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G326" t="n">
         <v>14</v>
@@ -8957,7 +8957,7 @@
         <v>8</v>
       </c>
       <c r="D328" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>15</v>
       </c>
       <c r="F329" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G329" t="n">
         <v>15</v>
@@ -9012,7 +9012,7 @@
         <v>14</v>
       </c>
       <c r="E330" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F330" t="n">
         <v>14</v>
@@ -9041,7 +9041,7 @@
         <v>15</v>
       </c>
       <c r="F331" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G331" t="n">
         <v>15</v>
@@ -9067,10 +9067,10 @@
         <v>15</v>
       </c>
       <c r="F332" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G332" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H332" t="n">
         <v>16</v>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E334" t="n">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="F336" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G336" t="n">
         <v>5</v>
@@ -9197,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="F337" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G337" t="n">
         <v>7.000000000000001</v>
@@ -9217,10 +9217,10 @@
         <v>13</v>
       </c>
       <c r="D338" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E338" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F338" t="n">
         <v>8</v>
@@ -9269,13 +9269,13 @@
         <v>14</v>
       </c>
       <c r="D340" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E340" t="n">
         <v>14</v>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G340" t="n">
         <v>13</v>
@@ -9324,7 +9324,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E342" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F342" t="n">
         <v>8</v>
@@ -9347,13 +9347,13 @@
         <v>2</v>
       </c>
       <c r="D343" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
       </c>
       <c r="F343" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -9373,13 +9373,13 @@
         <v>13</v>
       </c>
       <c r="D344" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E344" t="n">
         <v>14</v>
       </c>
       <c r="F344" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G344" t="n">
         <v>13</v>
@@ -9405,7 +9405,7 @@
         <v>15</v>
       </c>
       <c r="F345" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G345" t="n">
         <v>13</v>
@@ -9428,10 +9428,10 @@
         <v>16</v>
       </c>
       <c r="E346" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F346" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G346" t="n">
         <v>16</v>
@@ -9483,7 +9483,7 @@
         <v>14</v>
       </c>
       <c r="F348" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G348" t="n">
         <v>13</v>
@@ -9509,7 +9509,7 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G349" t="n">
         <v>8</v>
@@ -9529,7 +9529,7 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9581,13 +9581,13 @@
         <v>8</v>
       </c>
       <c r="D352" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G352" t="n">
         <v>10</v>
@@ -9639,7 +9639,7 @@
         <v>15</v>
       </c>
       <c r="F354" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G354" t="n">
         <v>14</v>
@@ -9659,13 +9659,13 @@
         <v>5</v>
       </c>
       <c r="D355" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E355" t="n">
         <v>6</v>
       </c>
       <c r="F355" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G355" t="n">
         <v>6</v>
@@ -9711,13 +9711,13 @@
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G357" t="n">
         <v>10</v>
@@ -9737,7 +9737,7 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E358" t="n">
         <v>11</v>
@@ -9769,7 +9769,7 @@
         <v>14</v>
       </c>
       <c r="F359" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G359" t="n">
         <v>13</v>
@@ -9789,7 +9789,7 @@
         <v>12</v>
       </c>
       <c r="D360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E360" t="n">
         <v>11</v>
@@ -9821,7 +9821,7 @@
         <v>15</v>
       </c>
       <c r="F361" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G361" t="n">
         <v>14</v>
@@ -9841,13 +9841,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D362" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
         <v>6</v>
       </c>
       <c r="F362" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G362" t="n">
         <v>7.000000000000001</v>
@@ -9870,7 +9870,7 @@
         <v>12</v>
       </c>
       <c r="E363" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F363" t="n">
         <v>12</v>
@@ -9919,7 +9919,7 @@
         <v>8</v>
       </c>
       <c r="D365" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
         <v>5</v>
       </c>
       <c r="F366" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -9974,7 +9974,7 @@
         <v>12</v>
       </c>
       <c r="E367" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F367" t="n">
         <v>12</v>
@@ -9997,13 +9997,13 @@
         <v>8</v>
       </c>
       <c r="D368" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G368" t="n">
         <v>9</v>
@@ -10049,13 +10049,13 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E370" t="n">
         <v>8</v>
       </c>
       <c r="F370" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G370" t="n">
         <v>11</v>
@@ -10127,13 +10127,13 @@
         <v>12</v>
       </c>
       <c r="D373" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G373" t="n">
         <v>10</v>
@@ -10159,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="F374" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G374" t="n">
         <v>11</v>
@@ -10205,10 +10205,10 @@
         <v>12</v>
       </c>
       <c r="D376" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E376" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F376" t="n">
         <v>12</v>
@@ -10237,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G377" t="n">
         <v>5</v>
@@ -10260,7 +10260,7 @@
         <v>11</v>
       </c>
       <c r="E378" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F378" t="n">
         <v>12</v>
@@ -10283,13 +10283,13 @@
         <v>11</v>
       </c>
       <c r="D379" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E379" t="n">
         <v>8</v>
       </c>
       <c r="F379" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G379" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         <v>14</v>
       </c>
       <c r="F381" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G381" t="n">
         <v>12</v>
@@ -10413,13 +10413,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D384" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G384" t="n">
         <v>9</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E386" t="n">
         <v>12</v>
       </c>
       <c r="F386" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10497,7 +10497,7 @@
         <v>8</v>
       </c>
       <c r="F387" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G387" t="n">
         <v>9</v>
@@ -10517,7 +10517,7 @@
         <v>11</v>
       </c>
       <c r="D388" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
@@ -10540,7 +10540,7 @@
         <v>10</v>
       </c>
       <c r="C389" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D389" t="n">
         <v>9</v>
@@ -10595,13 +10595,13 @@
         <v>11</v>
       </c>
       <c r="D391" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G391" t="n">
         <v>10</v>
@@ -10627,7 +10627,7 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G392" t="n">
         <v>9</v>
@@ -10647,7 +10647,7 @@
         <v>4</v>
       </c>
       <c r="D393" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -10699,13 +10699,13 @@
         <v>11</v>
       </c>
       <c r="D395" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G395" t="n">
         <v>10</v>
@@ -10751,13 +10751,13 @@
         <v>9</v>
       </c>
       <c r="D397" t="n">
+        <v>2</v>
+      </c>
+      <c r="E397" t="n">
+        <v>6</v>
+      </c>
+      <c r="F397" t="n">
         <v>3</v>
-      </c>
-      <c r="E397" t="n">
-        <v>5</v>
-      </c>
-      <c r="F397" t="n">
-        <v>4</v>
       </c>
       <c r="G397" t="n">
         <v>7.000000000000001</v>
@@ -10783,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="F398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G398" t="n">
         <v>6</v>
@@ -10855,7 +10855,7 @@
         <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E401" t="n">
         <v>11</v>
@@ -10881,13 +10881,13 @@
         <v>8</v>
       </c>
       <c r="D402" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G402" t="n">
         <v>9</v>
@@ -10985,10 +10985,10 @@
         <v>12</v>
       </c>
       <c r="D406" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E406" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F406" t="n">
         <v>8</v>
@@ -11011,7 +11011,7 @@
         <v>11</v>
       </c>
       <c r="D407" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E407" t="n">
         <v>12</v>
@@ -11037,13 +11037,13 @@
         <v>11</v>
       </c>
       <c r="D408" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G408" t="n">
         <v>11</v>
@@ -11066,7 +11066,7 @@
         <v>11</v>
       </c>
       <c r="E409" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F409" t="n">
         <v>12</v>
@@ -11095,7 +11095,7 @@
         <v>14</v>
       </c>
       <c r="F410" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G410" t="n">
         <v>13</v>
@@ -11115,7 +11115,7 @@
         <v>9</v>
       </c>
       <c r="D411" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E411" t="n">
         <v>11</v>
@@ -11144,7 +11144,7 @@
         <v>8</v>
       </c>
       <c r="E412" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F412" t="n">
         <v>8</v>
@@ -11167,13 +11167,13 @@
         <v>9</v>
       </c>
       <c r="D413" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E413" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F413" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G413" t="n">
         <v>8</v>
@@ -11219,13 +11219,13 @@
         <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E415" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F415" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G415" t="n">
         <v>9</v>
@@ -11251,7 +11251,7 @@
         <v>16</v>
       </c>
       <c r="F416" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G416" t="n">
         <v>15</v>
@@ -11300,7 +11300,7 @@
         <v>12</v>
       </c>
       <c r="E418" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F418" t="n">
         <v>12</v>
@@ -11355,7 +11355,7 @@
         <v>15</v>
       </c>
       <c r="F420" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G420" t="n">
         <v>14</v>
@@ -11375,13 +11375,13 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G421" t="n">
         <v>10</v>
@@ -11401,13 +11401,13 @@
         <v>10</v>
       </c>
       <c r="D422" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G422" t="n">
         <v>10</v>
@@ -11427,13 +11427,13 @@
         <v>11</v>
       </c>
       <c r="D423" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
       </c>
       <c r="F423" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G423" t="n">
         <v>10</v>
@@ -11485,7 +11485,7 @@
         <v>14</v>
       </c>
       <c r="F425" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G425" t="n">
         <v>12</v>
@@ -11511,7 +11511,7 @@
         <v>12</v>
       </c>
       <c r="F426" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G426" t="n">
         <v>12</v>
@@ -11531,13 +11531,13 @@
         <v>14</v>
       </c>
       <c r="D427" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E427" t="n">
         <v>14</v>
       </c>
       <c r="F427" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G427" t="n">
         <v>14</v>
@@ -11586,7 +11586,7 @@
         <v>12</v>
       </c>
       <c r="E429" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F429" t="n">
         <v>12</v>
@@ -11609,13 +11609,13 @@
         <v>8</v>
       </c>
       <c r="D430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
       </c>
       <c r="F430" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G430" t="n">
         <v>5</v>
@@ -11661,13 +11661,13 @@
         <v>10</v>
       </c>
       <c r="D432" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
       </c>
       <c r="F432" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G432" t="n">
         <v>9</v>
@@ -11687,7 +11687,7 @@
         <v>10</v>
       </c>
       <c r="D433" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11713,7 +11713,7 @@
         <v>14</v>
       </c>
       <c r="D434" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E434" t="n">
         <v>12</v>
@@ -11739,7 +11739,7 @@
         <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E435" t="n">
         <v>12</v>
@@ -11771,7 +11771,7 @@
         <v>14</v>
       </c>
       <c r="F436" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G436" t="n">
         <v>12</v>
@@ -11817,7 +11817,7 @@
         <v>12</v>
       </c>
       <c r="D438" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E438" t="n">
         <v>11</v>
@@ -11843,13 +11843,13 @@
         <v>15</v>
       </c>
       <c r="D439" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E439" t="n">
         <v>12</v>
       </c>
       <c r="F439" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G439" t="n">
         <v>13</v>
@@ -11869,7 +11869,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D440" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E440" t="n">
         <v>6</v>
@@ -11895,7 +11895,7 @@
         <v>11</v>
       </c>
       <c r="D441" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E441" t="n">
         <v>11</v>
@@ -11921,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="D442" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F443" t="n">
         <v>1</v>
@@ -11979,7 +11979,7 @@
         <v>15</v>
       </c>
       <c r="F444" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G444" t="n">
         <v>14</v>
@@ -12005,7 +12005,7 @@
         <v>14</v>
       </c>
       <c r="F445" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G445" t="n">
         <v>12</v>
@@ -12031,7 +12031,7 @@
         <v>15</v>
       </c>
       <c r="F446" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G446" t="n">
         <v>14</v>
@@ -12181,10 +12181,10 @@
         <v>12</v>
       </c>
       <c r="D452" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E452" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F452" t="n">
         <v>12</v>
@@ -12239,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="F454" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G454" t="n">
         <v>13</v>
@@ -12265,7 +12265,7 @@
         <v>15</v>
       </c>
       <c r="F455" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G455" t="n">
         <v>15</v>
@@ -12291,7 +12291,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F456" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G456" t="n">
         <v>7.000000000000001</v>
@@ -12343,7 +12343,7 @@
         <v>14</v>
       </c>
       <c r="F458" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G458" t="n">
         <v>13</v>
@@ -12366,10 +12366,10 @@
         <v>15</v>
       </c>
       <c r="E459" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F459" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G459" t="n">
         <v>13</v>
@@ -12389,13 +12389,13 @@
         <v>8</v>
       </c>
       <c r="D460" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E460" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F460" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G460" t="n">
         <v>7.000000000000001</v>
@@ -12418,7 +12418,7 @@
         <v>15</v>
       </c>
       <c r="E461" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F461" t="n">
         <v>15</v>
@@ -12441,7 +12441,7 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E462" t="n">
         <v>3</v>
@@ -12493,13 +12493,13 @@
         <v>9</v>
       </c>
       <c r="D464" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E464" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F464" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G464" t="n">
         <v>11</v>
@@ -12519,10 +12519,10 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E465" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F465" t="n">
         <v>14</v>
@@ -12577,7 +12577,7 @@
         <v>6</v>
       </c>
       <c r="F467" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G467" t="n">
         <v>4</v>
@@ -12597,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
       </c>
       <c r="F468" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -12655,7 +12655,7 @@
         <v>14</v>
       </c>
       <c r="F470" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G470" t="n">
         <v>13</v>
@@ -12678,10 +12678,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E471" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F471" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G471" t="n">
         <v>9</v>
@@ -12701,13 +12701,13 @@
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E472" t="n">
         <v>9</v>
       </c>
       <c r="F472" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G472" t="n">
         <v>10</v>
@@ -12733,7 +12733,7 @@
         <v>14</v>
       </c>
       <c r="F473" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G473" t="n">
         <v>13</v>
@@ -12753,10 +12753,10 @@
         <v>13</v>
       </c>
       <c r="D474" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E474" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F474" t="n">
         <v>12</v>
@@ -12837,7 +12837,7 @@
         <v>14</v>
       </c>
       <c r="F477" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G477" t="n">
         <v>13</v>
@@ -12863,7 +12863,7 @@
         <v>10</v>
       </c>
       <c r="F478" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G478" t="n">
         <v>9</v>
@@ -12883,10 +12883,10 @@
         <v>10</v>
       </c>
       <c r="D479" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E479" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F479" t="n">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>15</v>
       </c>
       <c r="F480" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G480" t="n">
         <v>14</v>
@@ -12935,7 +12935,7 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E481" t="n">
         <v>9</v>
@@ -12961,7 +12961,7 @@
         <v>8</v>
       </c>
       <c r="D482" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E482" t="n">
         <v>7.000000000000001</v>
@@ -12990,10 +12990,10 @@
         <v>15</v>
       </c>
       <c r="E483" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F483" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G483" t="n">
         <v>12</v>
@@ -13042,10 +13042,10 @@
         <v>15</v>
       </c>
       <c r="E485" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F485" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G485" t="n">
         <v>13</v>
@@ -13117,13 +13117,13 @@
         <v>8</v>
       </c>
       <c r="D488" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E488" t="n">
         <v>9</v>
       </c>
       <c r="F488" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G488" t="n">
         <v>10</v>
@@ -13149,7 +13149,7 @@
         <v>15</v>
       </c>
       <c r="F489" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G489" t="n">
         <v>13</v>
@@ -13195,13 +13195,13 @@
         <v>6</v>
       </c>
       <c r="D491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
       </c>
       <c r="F491" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G491" t="n">
         <v>5</v>
@@ -13221,7 +13221,7 @@
         <v>5</v>
       </c>
       <c r="D492" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E492" t="n">
         <v>11</v>
@@ -13253,7 +13253,7 @@
         <v>8</v>
       </c>
       <c r="F493" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13302,7 +13302,7 @@
         <v>12</v>
       </c>
       <c r="E495" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F495" t="n">
         <v>12</v>
@@ -13331,7 +13331,7 @@
         <v>15</v>
       </c>
       <c r="F496" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G496" t="n">
         <v>15</v>
@@ -13377,13 +13377,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D498" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E498" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F498" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13432,10 +13432,10 @@
         <v>13</v>
       </c>
       <c r="E500" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F500" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G500" t="n">
         <v>13</v>
@@ -13484,7 +13484,7 @@
         <v>12</v>
       </c>
       <c r="E502" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F502" t="n">
         <v>12</v>
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="D503" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E503" t="n">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="F504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G504" t="n">
         <v>4</v>
@@ -13565,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="F505" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G505" t="n">
         <v>4</v>
@@ -13637,13 +13637,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D508" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E508" t="n">
         <v>6</v>
       </c>
       <c r="F508" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -13663,7 +13663,7 @@
         <v>5</v>
       </c>
       <c r="D509" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E509" t="n">
         <v>9</v>
@@ -13741,10 +13741,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D512" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E512" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F512" t="n">
         <v>12</v>
@@ -13764,7 +13764,7 @@
         <v>8</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D513" t="n">
         <v>11</v>
@@ -13773,7 +13773,7 @@
         <v>10</v>
       </c>
       <c r="F513" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G513" t="n">
         <v>8</v>
@@ -13793,13 +13793,13 @@
         <v>8</v>
       </c>
       <c r="D514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
       </c>
       <c r="F514" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G514" t="n">
         <v>7.000000000000001</v>
@@ -13819,7 +13819,7 @@
         <v>16</v>
       </c>
       <c r="D515" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E515" t="n">
         <v>15</v>
@@ -13877,7 +13877,7 @@
         <v>3</v>
       </c>
       <c r="F517" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G517" t="n">
         <v>6</v>
@@ -13897,13 +13897,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
       </c>
       <c r="F518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G518" t="n">
         <v>4</v>
@@ -13923,7 +13923,7 @@
         <v>10</v>
       </c>
       <c r="D519" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13975,7 +13975,7 @@
         <v>9</v>
       </c>
       <c r="D521" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E521" t="n">
         <v>7.000000000000001</v>
@@ -14007,7 +14007,7 @@
         <v>15</v>
       </c>
       <c r="F522" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G522" t="n">
         <v>14</v>
@@ -14053,13 +14053,13 @@
         <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
       </c>
       <c r="F524" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G524" t="n">
         <v>7.000000000000001</v>
@@ -14111,7 +14111,7 @@
         <v>16</v>
       </c>
       <c r="F526" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G526" t="n">
         <v>15</v>
@@ -14137,7 +14137,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F527" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G527" t="n">
         <v>6</v>
@@ -14157,13 +14157,13 @@
         <v>15</v>
       </c>
       <c r="D528" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
       </c>
       <c r="F528" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G528" t="n">
         <v>12</v>
@@ -14183,13 +14183,13 @@
         <v>8</v>
       </c>
       <c r="D529" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E529" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F529" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G529" t="n">
         <v>8</v>
@@ -14235,13 +14235,13 @@
         <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E531" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F531" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G531" t="n">
         <v>9</v>
@@ -14264,7 +14264,7 @@
         <v>12</v>
       </c>
       <c r="E532" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F532" t="n">
         <v>12</v>
@@ -14316,7 +14316,7 @@
         <v>12</v>
       </c>
       <c r="E534" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F534" t="n">
         <v>12</v>
@@ -14449,7 +14449,7 @@
         <v>16</v>
       </c>
       <c r="F539" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G539" t="n">
         <v>16</v>
@@ -14469,10 +14469,10 @@
         <v>13</v>
       </c>
       <c r="D540" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E540" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F540" t="n">
         <v>12</v>
@@ -14501,7 +14501,7 @@
         <v>14</v>
       </c>
       <c r="F541" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G541" t="n">
         <v>12</v>
@@ -14527,7 +14527,7 @@
         <v>14</v>
       </c>
       <c r="F542" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G542" t="n">
         <v>12</v>
@@ -14547,13 +14547,13 @@
         <v>10</v>
       </c>
       <c r="D543" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E543" t="n">
         <v>8</v>
       </c>
       <c r="F543" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G543" t="n">
         <v>9</v>
@@ -14576,10 +14576,10 @@
         <v>16</v>
       </c>
       <c r="E544" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F544" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G544" t="n">
         <v>15</v>
@@ -14599,13 +14599,13 @@
         <v>10</v>
       </c>
       <c r="D545" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E545" t="n">
         <v>8</v>
       </c>
       <c r="F545" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G545" t="n">
         <v>8</v>
@@ -14625,13 +14625,13 @@
         <v>9</v>
       </c>
       <c r="D546" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E546" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F546" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G546" t="n">
         <v>10</v>
@@ -14654,10 +14654,10 @@
         <v>16</v>
       </c>
       <c r="E547" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G547" t="n">
         <v>15</v>
@@ -14683,7 +14683,7 @@
         <v>16</v>
       </c>
       <c r="F548" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G548" t="n">
         <v>15</v>
@@ -14781,7 +14781,7 @@
         <v>10</v>
       </c>
       <c r="D552" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E552" t="n">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>15</v>
       </c>
       <c r="F555" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G555" t="n">
         <v>15</v>
@@ -14891,7 +14891,7 @@
         <v>15</v>
       </c>
       <c r="F556" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G556" t="n">
         <v>15</v>
@@ -14963,13 +14963,13 @@
         <v>14</v>
       </c>
       <c r="D559" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E559" t="n">
         <v>14</v>
       </c>
       <c r="F559" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G559" t="n">
         <v>14</v>
@@ -14989,10 +14989,10 @@
         <v>10</v>
       </c>
       <c r="D560" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E560" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F560" t="n">
         <v>12</v>
@@ -15015,13 +15015,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D561" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E561" t="n">
         <v>6</v>
       </c>
       <c r="F561" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G561" t="n">
         <v>6</v>
@@ -15041,13 +15041,13 @@
         <v>4</v>
       </c>
       <c r="D562" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E562" t="n">
         <v>6</v>
       </c>
       <c r="F562" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G562" t="n">
         <v>6</v>
@@ -15099,7 +15099,7 @@
         <v>16</v>
       </c>
       <c r="F564" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G564" t="n">
         <v>15</v>
@@ -15122,10 +15122,10 @@
         <v>11</v>
       </c>
       <c r="E565" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F565" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G565" t="n">
         <v>7.000000000000001</v>
@@ -15177,7 +15177,7 @@
         <v>14</v>
       </c>
       <c r="F567" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G567" t="n">
         <v>12</v>
@@ -15200,7 +15200,7 @@
         <v>12</v>
       </c>
       <c r="E568" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F568" t="n">
         <v>12</v>
@@ -15223,13 +15223,13 @@
         <v>10</v>
       </c>
       <c r="D569" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E569" t="n">
         <v>8</v>
       </c>
       <c r="F569" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G569" t="n">
         <v>9</v>
@@ -15255,7 +15255,7 @@
         <v>15</v>
       </c>
       <c r="F570" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G570" t="n">
         <v>15</v>
@@ -15301,13 +15301,13 @@
         <v>4</v>
       </c>
       <c r="D572" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E572" t="n">
         <v>3</v>
       </c>
       <c r="F572" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G572" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         <v>3</v>
       </c>
       <c r="F573" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G573" t="n">
         <v>6</v>
@@ -15382,7 +15382,7 @@
         <v>12</v>
       </c>
       <c r="E575" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F575" t="n">
         <v>12</v>
@@ -15431,7 +15431,7 @@
         <v>6</v>
       </c>
       <c r="D577" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E577" t="n">
         <v>11</v>
@@ -15483,7 +15483,7 @@
         <v>3</v>
       </c>
       <c r="D579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E579" t="n">
         <v>1</v>
@@ -15567,7 +15567,7 @@
         <v>15</v>
       </c>
       <c r="F582" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G582" t="n">
         <v>14</v>
@@ -15593,7 +15593,7 @@
         <v>14</v>
       </c>
       <c r="F583" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G583" t="n">
         <v>13</v>
@@ -15613,13 +15613,13 @@
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E584" t="n">
         <v>11</v>
       </c>
       <c r="F584" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G584" t="n">
         <v>10</v>
@@ -15665,10 +15665,10 @@
         <v>8</v>
       </c>
       <c r="D586" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E586" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F586" t="n">
         <v>5</v>
@@ -15769,10 +15769,10 @@
         <v>8</v>
       </c>
       <c r="D590" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E590" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F590" t="n">
         <v>5</v>
@@ -15821,7 +15821,7 @@
         <v>13</v>
       </c>
       <c r="D592" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E592" t="n">
         <v>15</v>
@@ -15853,7 +15853,7 @@
         <v>3</v>
       </c>
       <c r="F593" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G593" t="n">
         <v>5</v>
@@ -15873,13 +15873,13 @@
         <v>11</v>
       </c>
       <c r="D594" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E594" t="n">
         <v>9</v>
       </c>
       <c r="F594" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G594" t="n">
         <v>11</v>
@@ -15899,13 +15899,13 @@
         <v>9</v>
       </c>
       <c r="D595" t="n">
+        <v>2</v>
+      </c>
+      <c r="E595" t="n">
+        <v>6</v>
+      </c>
+      <c r="F595" t="n">
         <v>3</v>
-      </c>
-      <c r="E595" t="n">
-        <v>5</v>
-      </c>
-      <c r="F595" t="n">
-        <v>4</v>
       </c>
       <c r="G595" t="n">
         <v>7.000000000000001</v>
@@ -15931,7 +15931,7 @@
         <v>4</v>
       </c>
       <c r="F596" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G596" t="n">
         <v>6</v>
@@ -15977,13 +15977,13 @@
         <v>11</v>
       </c>
       <c r="D598" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E598" t="n">
         <v>9</v>
       </c>
       <c r="F598" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G598" t="n">
         <v>11</v>
@@ -16003,13 +16003,13 @@
         <v>13</v>
       </c>
       <c r="D599" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E599" t="n">
         <v>11</v>
       </c>
       <c r="F599" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G599" t="n">
         <v>12</v>
@@ -16035,7 +16035,7 @@
         <v>16</v>
       </c>
       <c r="F600" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G600" t="n">
         <v>15</v>
@@ -16061,7 +16061,7 @@
         <v>4</v>
       </c>
       <c r="F601" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G601" t="n">
         <v>7.000000000000001</v>
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="F602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -16110,7 +16110,7 @@
         <v>12</v>
       </c>
       <c r="E603" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F603" t="n">
         <v>12</v>
@@ -16139,7 +16139,7 @@
         <v>16</v>
       </c>
       <c r="F604" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G604" t="n">
         <v>16</v>
@@ -16165,7 +16165,7 @@
         <v>15</v>
       </c>
       <c r="F605" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G605" t="n">
         <v>14</v>
@@ -16191,7 +16191,7 @@
         <v>11</v>
       </c>
       <c r="F606" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G606" t="n">
         <v>10</v>
@@ -16211,7 +16211,7 @@
         <v>8</v>
       </c>
       <c r="D607" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E607" t="n">
         <v>8</v>
@@ -16237,13 +16237,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D608" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E608" t="n">
         <v>8</v>
       </c>
       <c r="F608" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G608" t="n">
         <v>10</v>
@@ -16269,7 +16269,7 @@
         <v>17</v>
       </c>
       <c r="F609" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G609" t="n">
         <v>18</v>
@@ -16289,10 +16289,10 @@
         <v>4</v>
       </c>
       <c r="D610" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E610" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F610" t="n">
         <v>12</v>
@@ -16347,7 +16347,7 @@
         <v>13</v>
       </c>
       <c r="F612" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G612" t="n">
         <v>11</v>
@@ -16373,7 +16373,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G613" t="n">
         <v>8</v>
@@ -16419,7 +16419,7 @@
         <v>8</v>
       </c>
       <c r="D615" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E615" t="n">
         <v>9</v>
@@ -16445,10 +16445,10 @@
         <v>10</v>
       </c>
       <c r="D616" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E616" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F616" t="n">
         <v>12</v>
@@ -16526,7 +16526,7 @@
         <v>12</v>
       </c>
       <c r="E619" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F619" t="n">
         <v>12</v>
@@ -16633,7 +16633,7 @@
         <v>15</v>
       </c>
       <c r="F623" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G623" t="n">
         <v>14</v>
@@ -16653,10 +16653,10 @@
         <v>13</v>
       </c>
       <c r="D624" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E624" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F624" t="n">
         <v>12</v>
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F625" t="n">
         <v>1</v>
@@ -16731,13 +16731,13 @@
         <v>5</v>
       </c>
       <c r="D627" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E627" t="n">
         <v>14</v>
       </c>
       <c r="F627" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G627" t="n">
         <v>11</v>
@@ -16783,13 +16783,13 @@
         <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E629" t="n">
         <v>9</v>
       </c>
       <c r="F629" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G629" t="n">
         <v>10</v>
@@ -16841,7 +16841,7 @@
         <v>3</v>
       </c>
       <c r="F631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G631" t="n">
         <v>7.000000000000001</v>
@@ -16861,13 +16861,13 @@
         <v>10</v>
       </c>
       <c r="D632" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E632" t="n">
         <v>9</v>
       </c>
       <c r="F632" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G632" t="n">
         <v>10</v>
@@ -16913,13 +16913,13 @@
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E634" t="n">
         <v>9</v>
       </c>
       <c r="F634" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G634" t="n">
         <v>11</v>
@@ -16939,13 +16939,13 @@
         <v>10</v>
       </c>
       <c r="D635" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E635" t="n">
         <v>8</v>
       </c>
       <c r="F635" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G635" t="n">
         <v>7.000000000000001</v>
@@ -16994,10 +16994,10 @@
         <v>15</v>
       </c>
       <c r="E637" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F637" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G637" t="n">
         <v>13</v>
@@ -17020,7 +17020,7 @@
         <v>12</v>
       </c>
       <c r="E638" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F638" t="n">
         <v>12</v>
@@ -17049,7 +17049,7 @@
         <v>14</v>
       </c>
       <c r="F639" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G639" t="n">
         <v>12</v>
@@ -17075,7 +17075,7 @@
         <v>16</v>
       </c>
       <c r="F640" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G640" t="n">
         <v>15</v>
@@ -17101,7 +17101,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F641" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G641" t="n">
         <v>8</v>
@@ -17205,7 +17205,7 @@
         <v>16</v>
       </c>
       <c r="F645" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G645" t="n">
         <v>16</v>
@@ -17225,13 +17225,13 @@
         <v>12</v>
       </c>
       <c r="D646" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E646" t="n">
         <v>9</v>
       </c>
       <c r="F646" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G646" t="n">
         <v>12</v>
@@ -17251,13 +17251,13 @@
         <v>9</v>
       </c>
       <c r="D647" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E647" t="n">
         <v>8</v>
       </c>
       <c r="F647" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G647" t="n">
         <v>8</v>
@@ -17335,7 +17335,7 @@
         <v>15</v>
       </c>
       <c r="F650" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G650" t="n">
         <v>15</v>
@@ -17384,7 +17384,7 @@
         <v>12</v>
       </c>
       <c r="E652" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F652" t="n">
         <v>12</v>
@@ -17413,7 +17413,7 @@
         <v>2</v>
       </c>
       <c r="F653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G653" t="n">
         <v>4</v>
@@ -17433,13 +17433,13 @@
         <v>10</v>
       </c>
       <c r="D654" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E654" t="n">
         <v>14</v>
       </c>
       <c r="F654" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G654" t="n">
         <v>12</v>
@@ -17462,10 +17462,10 @@
         <v>16</v>
       </c>
       <c r="E655" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F655" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G655" t="n">
         <v>15</v>
@@ -17517,7 +17517,7 @@
         <v>15</v>
       </c>
       <c r="F657" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G657" t="n">
         <v>13</v>
@@ -17560,16 +17560,16 @@
         <v>15</v>
       </c>
       <c r="C659" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
       </c>
       <c r="F659" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G659" t="n">
         <v>10</v>
@@ -17589,13 +17589,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D660" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E660" t="n">
         <v>6</v>
       </c>
       <c r="F660" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G660" t="n">
         <v>6</v>
@@ -17647,7 +17647,7 @@
         <v>14</v>
       </c>
       <c r="F662" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G662" t="n">
         <v>12</v>
@@ -17667,13 +17667,13 @@
         <v>9</v>
       </c>
       <c r="D663" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E663" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F663" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G663" t="n">
         <v>10</v>
@@ -17696,10 +17696,10 @@
         <v>13</v>
       </c>
       <c r="E664" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F664" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G664" t="n">
         <v>9</v>
@@ -17719,13 +17719,13 @@
         <v>10</v>
       </c>
       <c r="D665" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E665" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F665" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G665" t="n">
         <v>8</v>
@@ -17803,7 +17803,7 @@
         <v>14</v>
       </c>
       <c r="F668" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G668" t="n">
         <v>13</v>
@@ -17823,13 +17823,13 @@
         <v>11</v>
       </c>
       <c r="D669" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E669" t="n">
         <v>9</v>
       </c>
       <c r="F669" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G669" t="n">
         <v>10</v>
@@ -17878,7 +17878,7 @@
         <v>12</v>
       </c>
       <c r="E671" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F671" t="n">
         <v>12</v>
@@ -17901,13 +17901,13 @@
         <v>13</v>
       </c>
       <c r="D672" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E672" t="n">
         <v>14</v>
       </c>
       <c r="F672" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G672" t="n">
         <v>13</v>
@@ -17933,7 +17933,7 @@
         <v>15</v>
       </c>
       <c r="F673" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G673" t="n">
         <v>14</v>
@@ -18011,7 +18011,7 @@
         <v>13</v>
       </c>
       <c r="F676" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G676" t="n">
         <v>11</v>
@@ -18037,7 +18037,7 @@
         <v>3</v>
       </c>
       <c r="F677" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G677" t="n">
         <v>4</v>
@@ -18060,7 +18060,7 @@
         <v>12</v>
       </c>
       <c r="E678" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F678" t="n">
         <v>12</v>
@@ -18135,7 +18135,7 @@
         <v>10</v>
       </c>
       <c r="D681" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E681" t="n">
         <v>10</v>
@@ -18164,7 +18164,7 @@
         <v>12</v>
       </c>
       <c r="E682" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F682" t="n">
         <v>12</v>
@@ -18187,13 +18187,13 @@
         <v>10</v>
       </c>
       <c r="D683" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E683" t="n">
         <v>9</v>
       </c>
       <c r="F683" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G683" t="n">
         <v>10</v>
@@ -18297,7 +18297,7 @@
         <v>14</v>
       </c>
       <c r="F687" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G687" t="n">
         <v>14</v>
@@ -18343,13 +18343,13 @@
         <v>11</v>
       </c>
       <c r="D689" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E689" t="n">
         <v>9</v>
       </c>
       <c r="F689" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G689" t="n">
         <v>9</v>
@@ -18395,10 +18395,10 @@
         <v>13</v>
       </c>
       <c r="D691" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E691" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F691" t="n">
         <v>12</v>
@@ -18427,7 +18427,7 @@
         <v>16</v>
       </c>
       <c r="F692" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G692" t="n">
         <v>15</v>
@@ -18479,7 +18479,7 @@
         <v>14</v>
       </c>
       <c r="F694" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G694" t="n">
         <v>13</v>
@@ -18499,10 +18499,10 @@
         <v>12</v>
       </c>
       <c r="D695" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E695" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F695" t="n">
         <v>12</v>
@@ -18600,16 +18600,16 @@
         <v>6</v>
       </c>
       <c r="C699" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E699" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F699" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G699" t="n">
         <v>9</v>
@@ -18635,7 +18635,7 @@
         <v>16</v>
       </c>
       <c r="F700" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G700" t="n">
         <v>16</v>
@@ -18658,10 +18658,10 @@
         <v>15</v>
       </c>
       <c r="E701" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F701" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G701" t="n">
         <v>15</v>
@@ -18687,7 +18687,7 @@
         <v>10</v>
       </c>
       <c r="F702" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G702" t="n">
         <v>8</v>
@@ -18707,13 +18707,13 @@
         <v>4</v>
       </c>
       <c r="D703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
       </c>
       <c r="F703" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G703" t="n">
         <v>6</v>
@@ -18739,7 +18739,7 @@
         <v>14</v>
       </c>
       <c r="F704" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G704" t="n">
         <v>13</v>
@@ -18759,13 +18759,13 @@
         <v>12</v>
       </c>
       <c r="D705" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
       </c>
       <c r="F705" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G705" t="n">
         <v>12</v>
@@ -18788,7 +18788,7 @@
         <v>11</v>
       </c>
       <c r="E706" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F706" t="n">
         <v>12</v>
@@ -18837,13 +18837,13 @@
         <v>9</v>
       </c>
       <c r="D708" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E708" t="n">
         <v>8</v>
       </c>
       <c r="F708" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G708" t="n">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>8</v>
       </c>
       <c r="F710" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G710" t="n">
         <v>9</v>
@@ -18970,7 +18970,7 @@
         <v>12</v>
       </c>
       <c r="E713" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F713" t="n">
         <v>12</v>
@@ -19019,7 +19019,7 @@
         <v>2</v>
       </c>
       <c r="D715" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E715" t="n">
         <v>10</v>
@@ -19048,10 +19048,10 @@
         <v>15</v>
       </c>
       <c r="E716" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F716" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G716" t="n">
         <v>14</v>
@@ -19077,7 +19077,7 @@
         <v>14</v>
       </c>
       <c r="F717" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G717" t="n">
         <v>12</v>
@@ -19123,13 +19123,13 @@
         <v>10</v>
       </c>
       <c r="D719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
       </c>
       <c r="F719" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>14</v>
       </c>
       <c r="F722" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G722" t="n">
         <v>13</v>
@@ -19256,7 +19256,7 @@
         <v>11</v>
       </c>
       <c r="E724" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F724" t="n">
         <v>12</v>
@@ -19311,7 +19311,7 @@
         <v>14</v>
       </c>
       <c r="F726" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G726" t="n">
         <v>12</v>
@@ -19337,7 +19337,7 @@
         <v>15</v>
       </c>
       <c r="F727" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G727" t="n">
         <v>14</v>
@@ -19363,7 +19363,7 @@
         <v>15</v>
       </c>
       <c r="F728" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G728" t="n">
         <v>14</v>
@@ -19386,10 +19386,10 @@
         <v>16</v>
       </c>
       <c r="E729" t="n">
+        <v>16</v>
+      </c>
+      <c r="F729" t="n">
         <v>17</v>
-      </c>
-      <c r="F729" t="n">
-        <v>16</v>
       </c>
       <c r="G729" t="n">
         <v>16</v>
@@ -19438,10 +19438,10 @@
         <v>11</v>
       </c>
       <c r="E731" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F731" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G731" t="n">
         <v>8</v>
@@ -19487,13 +19487,13 @@
         <v>10</v>
       </c>
       <c r="D733" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E733" t="n">
         <v>8</v>
       </c>
       <c r="F733" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G733" t="n">
         <v>8</v>
@@ -19519,7 +19519,7 @@
         <v>14</v>
       </c>
       <c r="F734" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G734" t="n">
         <v>14</v>
@@ -19565,7 +19565,7 @@
         <v>8</v>
       </c>
       <c r="D736" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E736" t="n">
         <v>11</v>
@@ -19597,7 +19597,7 @@
         <v>4</v>
       </c>
       <c r="F737" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G737" t="n">
         <v>5</v>
@@ -19643,13 +19643,13 @@
         <v>10</v>
       </c>
       <c r="D739" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E739" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F739" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G739" t="n">
         <v>7.000000000000001</v>
@@ -19695,13 +19695,13 @@
         <v>9</v>
       </c>
       <c r="D741" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
       </c>
       <c r="F741" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G741" t="n">
         <v>11</v>
@@ -19753,7 +19753,7 @@
         <v>14</v>
       </c>
       <c r="F743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G743" t="n">
         <v>13</v>
@@ -19779,7 +19779,7 @@
         <v>14</v>
       </c>
       <c r="F744" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G744" t="n">
         <v>13</v>
@@ -19805,7 +19805,7 @@
         <v>15</v>
       </c>
       <c r="F745" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G745" t="n">
         <v>15</v>
@@ -19851,7 +19851,7 @@
         <v>10</v>
       </c>
       <c r="D747" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E747" t="n">
         <v>12</v>
@@ -19903,7 +19903,7 @@
         <v>3</v>
       </c>
       <c r="D749" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E749" t="n">
         <v>11</v>
@@ -19935,7 +19935,7 @@
         <v>14</v>
       </c>
       <c r="F750" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G750" t="n">
         <v>13</v>
@@ -19961,7 +19961,7 @@
         <v>5</v>
       </c>
       <c r="F751" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G751" t="n">
         <v>6</v>
@@ -19981,10 +19981,10 @@
         <v>12</v>
       </c>
       <c r="D752" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E752" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F752" t="n">
         <v>9</v>
@@ -20007,13 +20007,13 @@
         <v>8</v>
       </c>
       <c r="D753" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
       </c>
       <c r="F753" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G753" t="n">
         <v>10</v>
@@ -20039,7 +20039,7 @@
         <v>16</v>
       </c>
       <c r="F754" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G754" t="n">
         <v>15</v>
@@ -20137,13 +20137,13 @@
         <v>12</v>
       </c>
       <c r="D758" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
       </c>
       <c r="F758" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20169,7 +20169,7 @@
         <v>4</v>
       </c>
       <c r="F759" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G759" t="n">
         <v>6</v>
@@ -20189,10 +20189,10 @@
         <v>12</v>
       </c>
       <c r="D760" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E760" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F760" t="n">
         <v>12</v>
@@ -20241,13 +20241,13 @@
         <v>10</v>
       </c>
       <c r="D762" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E762" t="n">
         <v>8</v>
       </c>
       <c r="F762" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G762" t="n">
         <v>8</v>
@@ -20293,7 +20293,7 @@
         <v>12</v>
       </c>
       <c r="D764" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E764" t="n">
         <v>11</v>
@@ -20374,7 +20374,7 @@
         <v>12</v>
       </c>
       <c r="E767" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F767" t="n">
         <v>12</v>
@@ -20403,7 +20403,7 @@
         <v>14</v>
       </c>
       <c r="F768" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G768" t="n">
         <v>13</v>
@@ -20423,7 +20423,7 @@
         <v>11</v>
       </c>
       <c r="D769" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E769" t="n">
         <v>11</v>
@@ -20475,13 +20475,13 @@
         <v>11</v>
       </c>
       <c r="D771" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
       </c>
       <c r="F771" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G771" t="n">
         <v>10</v>
@@ -20501,7 +20501,7 @@
         <v>12</v>
       </c>
       <c r="D772" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E772" t="n">
         <v>10</v>
@@ -20605,10 +20605,10 @@
         <v>11</v>
       </c>
       <c r="D776" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E776" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F776" t="n">
         <v>12</v>
@@ -20689,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="F779" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G779" t="n">
         <v>5</v>
@@ -20738,10 +20738,10 @@
         <v>11</v>
       </c>
       <c r="E781" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F781" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G781" t="n">
         <v>7.000000000000001</v>
@@ -20764,7 +20764,7 @@
         <v>9</v>
       </c>
       <c r="E782" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F782" t="n">
         <v>9</v>
@@ -20787,10 +20787,10 @@
         <v>13</v>
       </c>
       <c r="D783" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E783" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F783" t="n">
         <v>12</v>
@@ -20819,7 +20819,7 @@
         <v>4</v>
       </c>
       <c r="F784" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G784" t="n">
         <v>6</v>
@@ -20868,7 +20868,7 @@
         <v>5</v>
       </c>
       <c r="E786" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F786" t="n">
         <v>5</v>
@@ -20897,7 +20897,7 @@
         <v>15</v>
       </c>
       <c r="F787" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G787" t="n">
         <v>15</v>
@@ -20943,10 +20943,10 @@
         <v>10</v>
       </c>
       <c r="D789" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E789" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F789" t="n">
         <v>12</v>
@@ -20969,7 +20969,7 @@
         <v>3</v>
       </c>
       <c r="D790" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E790" t="n">
         <v>6</v>
@@ -20995,7 +20995,7 @@
         <v>1</v>
       </c>
       <c r="D791" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E791" t="n">
         <v>2</v>
@@ -21053,7 +21053,7 @@
         <v>14</v>
       </c>
       <c r="F793" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G793" t="n">
         <v>13</v>
@@ -21070,7 +21070,7 @@
         <v>14</v>
       </c>
       <c r="C794" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D794" t="n">
         <v>15</v>
@@ -21079,7 +21079,7 @@
         <v>15</v>
       </c>
       <c r="F794" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G794" t="n">
         <v>15</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="D795" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E795" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F795" t="n">
         <v>12</v>
@@ -21131,7 +21131,7 @@
         <v>14</v>
       </c>
       <c r="F796" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G796" t="n">
         <v>13</v>
@@ -21180,7 +21180,7 @@
         <v>9</v>
       </c>
       <c r="E798" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F798" t="n">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>15</v>
       </c>
       <c r="F800" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G800" t="n">
         <v>15</v>
@@ -21255,13 +21255,13 @@
         <v>1</v>
       </c>
       <c r="D801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E801" t="n">
         <v>4</v>
       </c>
       <c r="F801" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -21287,7 +21287,7 @@
         <v>15</v>
       </c>
       <c r="F802" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G802" t="n">
         <v>15</v>
@@ -21313,7 +21313,7 @@
         <v>17</v>
       </c>
       <c r="F803" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G803" t="n">
         <v>17</v>
@@ -21333,13 +21333,13 @@
         <v>9</v>
       </c>
       <c r="D804" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
       </c>
       <c r="F804" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G804" t="n">
         <v>10</v>
@@ -21362,7 +21362,7 @@
         <v>12</v>
       </c>
       <c r="E805" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F805" t="n">
         <v>12</v>
@@ -21385,13 +21385,13 @@
         <v>11</v>
       </c>
       <c r="D806" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
       </c>
       <c r="F806" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G806" t="n">
         <v>10</v>
@@ -21443,7 +21443,7 @@
         <v>8</v>
       </c>
       <c r="F808" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G808" t="n">
         <v>9</v>
@@ -21463,7 +21463,7 @@
         <v>11</v>
       </c>
       <c r="D809" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E809" t="n">
         <v>11</v>
@@ -21495,7 +21495,7 @@
         <v>15</v>
       </c>
       <c r="F810" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G810" t="n">
         <v>14</v>
@@ -21521,7 +21521,7 @@
         <v>16</v>
       </c>
       <c r="F811" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G811" t="n">
         <v>15</v>
@@ -21547,7 +21547,7 @@
         <v>14</v>
       </c>
       <c r="F812" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G812" t="n">
         <v>13</v>
@@ -21567,7 +21567,7 @@
         <v>10</v>
       </c>
       <c r="D813" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E813" t="n">
         <v>12</v>
@@ -21729,7 +21729,7 @@
         <v>15</v>
       </c>
       <c r="F819" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G819" t="n">
         <v>15</v>
@@ -21755,7 +21755,7 @@
         <v>9</v>
       </c>
       <c r="F820" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G820" t="n">
         <v>9</v>
@@ -21778,10 +21778,10 @@
         <v>15</v>
       </c>
       <c r="E821" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F821" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G821" t="n">
         <v>13</v>
@@ -21827,13 +21827,13 @@
         <v>11</v>
       </c>
       <c r="D823" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E823" t="n">
         <v>14</v>
       </c>
       <c r="F823" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G823" t="n">
         <v>13</v>
@@ -21885,7 +21885,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F825" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G825" t="n">
         <v>7.000000000000001</v>
@@ -21931,13 +21931,13 @@
         <v>10</v>
       </c>
       <c r="D827" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
       </c>
       <c r="F827" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G827" t="n">
         <v>11</v>
@@ -21986,7 +21986,7 @@
         <v>12</v>
       </c>
       <c r="E829" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F829" t="n">
         <v>12</v>
@@ -22035,13 +22035,13 @@
         <v>11</v>
       </c>
       <c r="D831" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E831" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F831" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G831" t="n">
         <v>12</v>
@@ -22067,7 +22067,7 @@
         <v>15</v>
       </c>
       <c r="F832" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G832" t="n">
         <v>14</v>
@@ -22087,10 +22087,10 @@
         <v>10</v>
       </c>
       <c r="D833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E833" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F833" t="n">
         <v>8</v>
@@ -22113,10 +22113,10 @@
         <v>8</v>
       </c>
       <c r="D834" t="n">
+        <v>8</v>
+      </c>
+      <c r="E834" t="n">
         <v>7.000000000000001</v>
-      </c>
-      <c r="E834" t="n">
-        <v>6</v>
       </c>
       <c r="F834" t="n">
         <v>8</v>
@@ -22191,7 +22191,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D837" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E837" t="n">
         <v>8</v>
@@ -22223,7 +22223,7 @@
         <v>15</v>
       </c>
       <c r="F838" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G838" t="n">
         <v>14</v>
@@ -22243,7 +22243,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D839" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
@@ -22301,7 +22301,7 @@
         <v>3</v>
       </c>
       <c r="F841" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G841" t="n">
         <v>6</v>
@@ -22327,7 +22327,7 @@
         <v>14</v>
       </c>
       <c r="F842" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G842" t="n">
         <v>13</v>
@@ -22353,7 +22353,7 @@
         <v>9</v>
       </c>
       <c r="F843" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G843" t="n">
         <v>7.000000000000001</v>
@@ -22399,13 +22399,13 @@
         <v>8</v>
       </c>
       <c r="D845" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
       </c>
       <c r="F845" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G845" t="n">
         <v>11</v>
@@ -22425,7 +22425,7 @@
         <v>1</v>
       </c>
       <c r="D846" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E846" t="n">
         <v>4</v>
@@ -22451,13 +22451,13 @@
         <v>10</v>
       </c>
       <c r="D847" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
       </c>
       <c r="F847" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G847" t="n">
         <v>10</v>
@@ -22483,7 +22483,7 @@
         <v>15</v>
       </c>
       <c r="F848" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G848" t="n">
         <v>16</v>
@@ -22529,13 +22529,13 @@
         <v>11</v>
       </c>
       <c r="D850" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
       </c>
       <c r="F850" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G850" t="n">
         <v>10</v>
@@ -22659,13 +22659,13 @@
         <v>9</v>
       </c>
       <c r="D855" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E855" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F855" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G855" t="n">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="F856" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G856" t="n">
         <v>13</v>
@@ -22717,7 +22717,7 @@
         <v>4</v>
       </c>
       <c r="F857" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G857" t="n">
         <v>6</v>
@@ -22737,7 +22737,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D858" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E858" t="n">
         <v>11</v>
@@ -22795,7 +22795,7 @@
         <v>3</v>
       </c>
       <c r="F860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G860" t="n">
         <v>4</v>
@@ -22844,7 +22844,7 @@
         <v>11</v>
       </c>
       <c r="E862" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F862" t="n">
         <v>12</v>
@@ -22867,7 +22867,7 @@
         <v>10</v>
       </c>
       <c r="D863" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -22919,13 +22919,13 @@
         <v>3</v>
       </c>
       <c r="D865" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E865" t="n">
         <v>3</v>
       </c>
       <c r="F865" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G865" t="n">
         <v>4</v>
@@ -22951,7 +22951,7 @@
         <v>15</v>
       </c>
       <c r="F866" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G866" t="n">
         <v>14</v>
@@ -23003,7 +23003,7 @@
         <v>16</v>
       </c>
       <c r="F868" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G868" t="n">
         <v>15</v>
@@ -23029,7 +23029,7 @@
         <v>2</v>
       </c>
       <c r="F869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G869" t="n">
         <v>5</v>
@@ -23081,7 +23081,7 @@
         <v>15</v>
       </c>
       <c r="F871" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G871" t="n">
         <v>13</v>
@@ -23107,7 +23107,7 @@
         <v>15</v>
       </c>
       <c r="F872" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G872" t="n">
         <v>14</v>
@@ -23159,7 +23159,7 @@
         <v>4</v>
       </c>
       <c r="F874" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G874" t="n">
         <v>7.000000000000001</v>
@@ -23182,7 +23182,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E875" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F875" t="n">
         <v>8</v>
@@ -23234,10 +23234,10 @@
         <v>13</v>
       </c>
       <c r="E877" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F877" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G877" t="n">
         <v>10</v>
@@ -23257,7 +23257,7 @@
         <v>10</v>
       </c>
       <c r="D878" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -23338,10 +23338,10 @@
         <v>11</v>
       </c>
       <c r="E881" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F881" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G881" t="n">
         <v>10</v>
@@ -23364,7 +23364,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F882" t="n">
         <v>1</v>
@@ -23413,13 +23413,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E884" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F884" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G884" t="n">
         <v>10</v>
@@ -23442,10 +23442,10 @@
         <v>11</v>
       </c>
       <c r="E885" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F885" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23468,7 +23468,7 @@
         <v>12</v>
       </c>
       <c r="E886" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F886" t="n">
         <v>12</v>
@@ -23491,13 +23491,13 @@
         <v>6</v>
       </c>
       <c r="D887" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E887" t="n">
         <v>8</v>
       </c>
       <c r="F887" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G887" t="n">
         <v>8</v>
@@ -23523,7 +23523,7 @@
         <v>14</v>
       </c>
       <c r="F888" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G888" t="n">
         <v>14</v>
@@ -23546,7 +23546,7 @@
         <v>12</v>
       </c>
       <c r="E889" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F889" t="n">
         <v>12</v>
@@ -23627,7 +23627,7 @@
         <v>14</v>
       </c>
       <c r="F892" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G892" t="n">
         <v>13</v>
@@ -23673,13 +23673,13 @@
         <v>10</v>
       </c>
       <c r="D894" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E894" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F894" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G894" t="n">
         <v>10</v>
@@ -23699,7 +23699,7 @@
         <v>3</v>
       </c>
       <c r="D895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E895" t="n">
         <v>2</v>
@@ -23725,13 +23725,13 @@
         <v>9</v>
       </c>
       <c r="D896" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E896" t="n">
         <v>8</v>
       </c>
       <c r="F896" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G896" t="n">
         <v>8</v>
@@ -23751,13 +23751,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
       </c>
       <c r="F897" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G897" t="n">
         <v>5</v>
@@ -23783,7 +23783,7 @@
         <v>14</v>
       </c>
       <c r="F898" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G898" t="n">
         <v>13</v>
@@ -23806,7 +23806,7 @@
         <v>12</v>
       </c>
       <c r="E899" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F899" t="n">
         <v>12</v>
@@ -23835,7 +23835,7 @@
         <v>14</v>
       </c>
       <c r="F900" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G900" t="n">
         <v>13</v>
@@ -23887,7 +23887,7 @@
         <v>14</v>
       </c>
       <c r="F902" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G902" t="n">
         <v>14</v>
@@ -23913,7 +23913,7 @@
         <v>15</v>
       </c>
       <c r="F903" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G903" t="n">
         <v>15</v>
@@ -23933,13 +23933,13 @@
         <v>11</v>
       </c>
       <c r="D904" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
       </c>
       <c r="F904" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G904" t="n">
         <v>10</v>
@@ -23962,10 +23962,10 @@
         <v>15</v>
       </c>
       <c r="E905" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F905" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G905" t="n">
         <v>13</v>
@@ -24017,7 +24017,7 @@
         <v>15</v>
       </c>
       <c r="F907" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G907" t="n">
         <v>14</v>
@@ -24043,7 +24043,7 @@
         <v>14</v>
       </c>
       <c r="F908" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G908" t="n">
         <v>13</v>
@@ -24066,7 +24066,7 @@
         <v>11</v>
       </c>
       <c r="E909" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F909" t="n">
         <v>12</v>
@@ -24095,7 +24095,7 @@
         <v>15</v>
       </c>
       <c r="F910" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G910" t="n">
         <v>13</v>
@@ -24170,7 +24170,7 @@
         <v>12</v>
       </c>
       <c r="E913" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F913" t="n">
         <v>12</v>
@@ -24199,7 +24199,7 @@
         <v>16</v>
       </c>
       <c r="F914" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G914" t="n">
         <v>16</v>
@@ -24222,10 +24222,10 @@
         <v>11</v>
       </c>
       <c r="E915" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F915" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G915" t="n">
         <v>9</v>
@@ -24251,7 +24251,7 @@
         <v>14</v>
       </c>
       <c r="F916" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G916" t="n">
         <v>13</v>
@@ -24271,13 +24271,13 @@
         <v>14</v>
       </c>
       <c r="D917" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
       </c>
       <c r="F917" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G917" t="n">
         <v>14</v>
@@ -24300,10 +24300,10 @@
         <v>2</v>
       </c>
       <c r="E918" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F918" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G918" t="n">
         <v>5</v>
@@ -24323,13 +24323,13 @@
         <v>9</v>
       </c>
       <c r="D919" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
       </c>
       <c r="F919" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G919" t="n">
         <v>9</v>
@@ -24378,7 +24378,7 @@
         <v>12</v>
       </c>
       <c r="E921" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F921" t="n">
         <v>12</v>
@@ -24401,7 +24401,7 @@
         <v>9</v>
       </c>
       <c r="D922" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E922" t="n">
         <v>11</v>
@@ -24433,7 +24433,7 @@
         <v>15</v>
       </c>
       <c r="F923" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G923" t="n">
         <v>14</v>
@@ -24485,7 +24485,7 @@
         <v>15</v>
       </c>
       <c r="F925" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G925" t="n">
         <v>14</v>
@@ -24534,7 +24534,7 @@
         <v>12</v>
       </c>
       <c r="E927" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F927" t="n">
         <v>12</v>
@@ -24560,7 +24560,7 @@
         <v>11</v>
       </c>
       <c r="E928" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F928" t="n">
         <v>12</v>
@@ -24609,13 +24609,13 @@
         <v>11</v>
       </c>
       <c r="D930" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
       </c>
       <c r="F930" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G930" t="n">
         <v>11</v>
@@ -24641,7 +24641,7 @@
         <v>16</v>
       </c>
       <c r="F931" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G931" t="n">
         <v>16</v>
@@ -24661,13 +24661,13 @@
         <v>9</v>
       </c>
       <c r="D932" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E932" t="n">
         <v>8</v>
       </c>
       <c r="F932" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G932" t="n">
         <v>8</v>
@@ -24687,13 +24687,13 @@
         <v>12</v>
       </c>
       <c r="D933" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
       </c>
       <c r="F933" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G933" t="n">
         <v>10</v>
@@ -24765,7 +24765,7 @@
         <v>8</v>
       </c>
       <c r="D936" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E936" t="n">
         <v>8</v>
@@ -24823,7 +24823,7 @@
         <v>15</v>
       </c>
       <c r="F938" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G938" t="n">
         <v>14</v>
@@ -24849,7 +24849,7 @@
         <v>3</v>
       </c>
       <c r="F939" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G939" t="n">
         <v>7.000000000000001</v>
@@ -24872,10 +24872,10 @@
         <v>11</v>
       </c>
       <c r="E940" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F940" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G940" t="n">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>14</v>
       </c>
       <c r="F941" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G941" t="n">
         <v>13</v>
@@ -24924,7 +24924,7 @@
         <v>11</v>
       </c>
       <c r="E942" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F942" t="n">
         <v>12</v>
@@ -24953,7 +24953,7 @@
         <v>15</v>
       </c>
       <c r="F943" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G943" t="n">
         <v>15</v>
@@ -24999,13 +24999,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
       </c>
       <c r="F945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G945" t="n">
         <v>5</v>
@@ -25031,7 +25031,7 @@
         <v>14</v>
       </c>
       <c r="F946" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G946" t="n">
         <v>12</v>
@@ -25057,7 +25057,7 @@
         <v>8</v>
       </c>
       <c r="F947" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G947" t="n">
         <v>9</v>
@@ -25132,7 +25132,7 @@
         <v>12</v>
       </c>
       <c r="E950" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F950" t="n">
         <v>12</v>
@@ -25187,7 +25187,7 @@
         <v>8</v>
       </c>
       <c r="F952" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G952" t="n">
         <v>9</v>
@@ -25213,7 +25213,7 @@
         <v>15</v>
       </c>
       <c r="F953" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G953" t="n">
         <v>14</v>
@@ -25285,13 +25285,13 @@
         <v>6</v>
       </c>
       <c r="D956" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E956" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F956" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G956" t="n">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>14</v>
       </c>
       <c r="F957" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G957" t="n">
         <v>13</v>
@@ -25337,13 +25337,13 @@
         <v>8</v>
       </c>
       <c r="D958" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
       </c>
       <c r="F958" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G958" t="n">
         <v>10</v>
@@ -25366,7 +25366,7 @@
         <v>12</v>
       </c>
       <c r="E959" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F959" t="n">
         <v>12</v>
@@ -25421,7 +25421,7 @@
         <v>10</v>
       </c>
       <c r="F961" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G961" t="n">
         <v>9</v>
@@ -25441,7 +25441,7 @@
         <v>4</v>
       </c>
       <c r="D962" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E962" t="n">
         <v>7.000000000000001</v>
